--- a/v2/src/main/resources/excel/template_terzeparti.xlsx
+++ b/v2/src/main/resources/excel/template_terzeparti.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="V2" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
